--- a/process_imgs/misc/2018.06.10_calibration_test/0607141501_IR_IMG_0004 calib.xlsx
+++ b/process_imgs/misc/2018.06.10_calibration_test/0607141501_IR_IMG_0004 calib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin Pursley\Desktop\Summer-Research-Plant-Drought-Stress-Computer-Vision\process_imgs\2018.06.10 calibration test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin Pursley\Projects\Summer-Research-Plant-Drought-Stress-Computer-Vision\process_imgs\misc\2018.06.10_calibration_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5AD66AC3-20EA-4D38-970C-97467DAAD34E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62499D99-6D2C-4411-B349-E0D92BD11DB3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12855" xr2:uid="{77624C53-3D38-4D9B-B0A3-C2814ED733E7}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12855" xr2:uid="{77624C53-3D38-4D9B-B0A3-C2814ED733E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1038,15 +1038,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>1471612</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
